--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FED10-DECB-4DF6-9070-B8D562E8F394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -136,24 +137,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="常规 3 2" xfId="4"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 4 2" xfId="7"/>
-    <cellStyle name="常规 5" xfId="3"/>
-    <cellStyle name="常规 6" xfId="10"/>
-    <cellStyle name="好 2" xfId="9"/>
-    <cellStyle name="好 3" xfId="8"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 6" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="好 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="好 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -161,14 +165,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -278,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,6 +504,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>5555</v>
+      </c>
       <c r="B7">
         <v>7</v>
       </c>
@@ -505,6 +515,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
       <c r="B8">
         <v>8</v>
       </c>
@@ -513,6 +524,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
       <c r="B9">
         <v>9</v>
       </c>
@@ -544,6 +556,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -551,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
